--- a/teaching/traditional_assets/database/data/venezuela/venezuela_steel.xlsx
+++ b/teaching/traditional_assets/database/data/venezuela/venezuela_steel.xlsx
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="K2">
-        <v>-5.77</v>
+        <v>-1.59</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -615,73 +615,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>2.12</v>
+        <v>1.07</v>
       </c>
       <c r="V2">
-        <v>0.2134944612286002</v>
+        <v>0.1903914590747331</v>
       </c>
       <c r="W2">
-        <v>-2.359311244673661e-05</v>
+        <v>-0.0001355533389600757</v>
       </c>
       <c r="X2">
-        <v>1.193736025033735</v>
+        <v>2.400763686053281</v>
       </c>
       <c r="Y2">
-        <v>-1.193759618146182</v>
+        <v>-2.400899239392241</v>
       </c>
       <c r="Z2">
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>-2.576491870442376e-06</v>
+        <v>-4.917896140701842e-05</v>
       </c>
       <c r="AB2">
-        <v>0.243787926615406</v>
+        <v>0.3286911707262999</v>
       </c>
       <c r="AC2">
-        <v>-0.2437905031072765</v>
+        <v>-0.3287403496877069</v>
       </c>
       <c r="AD2">
-        <v>78.8</v>
+        <v>82.8</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>78.8</v>
+        <v>82.8</v>
       </c>
       <c r="AG2">
-        <v>76.67999999999999</v>
+        <v>81.73</v>
       </c>
       <c r="AH2">
-        <v>0.8880874563281868</v>
+        <v>0.9364397195204704</v>
       </c>
       <c r="AI2">
-        <v>0.08099496351115222</v>
+        <v>0.08113669769720724</v>
       </c>
       <c r="AJ2">
-        <v>0.8853481122272255</v>
+        <v>0.9356611333714939</v>
       </c>
       <c r="AK2">
-        <v>0.07898803024372154</v>
+        <v>0.08017225312184259</v>
       </c>
       <c r="AL2">
-        <v>6.48</v>
+        <v>6.94</v>
       </c>
       <c r="AM2">
-        <v>0.8000000000000007</v>
+        <v>0.9100000000000001</v>
       </c>
       <c r="AN2">
-        <v>-113.2183908045977</v>
+        <v>-130.3937007874016</v>
       </c>
       <c r="AO2">
-        <v>-0.1095679012345679</v>
+        <v>-0.09351585014409222</v>
       </c>
       <c r="AP2">
-        <v>-110.1724137931034</v>
+        <v>-128.7086614173228</v>
       </c>
       <c r="AQ2">
-        <v>-0.8874999999999992</v>
+        <v>-0.7131868131868131</v>
       </c>
     </row>
     <row r="3">
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="K3">
-        <v>-5.77</v>
+        <v>-1.59</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -725,73 +725,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>2.12</v>
+        <v>1.07</v>
       </c>
       <c r="V3">
-        <v>0.2134944612286002</v>
+        <v>0.1903914590747331</v>
       </c>
       <c r="W3">
-        <v>-2.359311244673661e-05</v>
+        <v>-0.0001355533389600757</v>
       </c>
       <c r="X3">
-        <v>1.193736025033735</v>
+        <v>2.400763686053281</v>
       </c>
       <c r="Y3">
-        <v>-1.193759618146182</v>
+        <v>-2.400899239392241</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>-2.576491870442376e-06</v>
+        <v>-4.917896140701842e-05</v>
       </c>
       <c r="AB3">
-        <v>0.243787926615406</v>
+        <v>0.3286911707262999</v>
       </c>
       <c r="AC3">
-        <v>-0.2437905031072765</v>
+        <v>-0.3287403496877069</v>
       </c>
       <c r="AD3">
-        <v>78.8</v>
+        <v>82.8</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>78.8</v>
+        <v>82.8</v>
       </c>
       <c r="AG3">
-        <v>76.67999999999999</v>
+        <v>81.73</v>
       </c>
       <c r="AH3">
-        <v>0.8880874563281868</v>
+        <v>0.9364397195204704</v>
       </c>
       <c r="AI3">
-        <v>0.08099496351115222</v>
+        <v>0.08113669769720724</v>
       </c>
       <c r="AJ3">
-        <v>0.8853481122272255</v>
+        <v>0.9356611333714939</v>
       </c>
       <c r="AK3">
-        <v>0.07898803024372154</v>
+        <v>0.08017225312184259</v>
       </c>
       <c r="AL3">
-        <v>6.48</v>
+        <v>6.94</v>
       </c>
       <c r="AM3">
-        <v>0.8000000000000007</v>
+        <v>0.9100000000000001</v>
       </c>
       <c r="AN3">
-        <v>-113.2183908045977</v>
+        <v>-130.3937007874016</v>
       </c>
       <c r="AO3">
-        <v>-0.1095679012345679</v>
+        <v>-0.09351585014409222</v>
       </c>
       <c r="AP3">
-        <v>-110.1724137931034</v>
+        <v>-128.7086614173228</v>
       </c>
       <c r="AQ3">
-        <v>-0.8874999999999992</v>
+        <v>-0.7131868131868131</v>
       </c>
     </row>
   </sheetData>
